--- a/P3/Results/Data/Milk/32th_Milk/Results/OTResults.xlsx
+++ b/P3/Results/Data/Milk/32th_Milk/Results/OTResults.xlsx
@@ -412,25 +412,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="35" customWidth="1" min="1" max="1"/>
-    <col width="28" customWidth="1" min="2" max="2"/>
-    <col width="27" customWidth="1" min="3" max="3"/>
-    <col width="30" customWidth="1" min="4" max="4"/>
-    <col width="27" customWidth="1" min="5" max="5"/>
-    <col width="26" customWidth="1" min="6" max="6"/>
-    <col width="29" customWidth="1" min="7" max="7"/>
-    <col width="26" customWidth="1" min="8" max="8"/>
-    <col width="25" customWidth="1" min="9" max="9"/>
-    <col width="28" customWidth="1" min="10" max="10"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -455,32 +443,62 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
+          <t>Psnr Ground diff Dehazed</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Psnr Reference diff Dehazed</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>MBE Ground diff Reference</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>MBE Ground diff Enhanced</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>MBE Reference diff Enhanced</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>MBE Ground diff Dehazed</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>MBE Reference diff Dehazed</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
         <is>
           <t>AG Ground diff Reference</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>AG Ground diff Enhanced</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>AG Reference diff Enhanced</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>AG Ground diff Dehazed</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>AG Reference diff Dehazed</t>
         </is>
       </c>
     </row>
@@ -500,22 +518,40 @@
         <v>6.14</v>
       </c>
       <c r="E2" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="G2" t="n">
         <v>-97.22</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>-2.79</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>94.43000000000001</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
+        <v>-25.59</v>
+      </c>
+      <c r="K2" t="n">
+        <v>71.63</v>
+      </c>
+      <c r="L2" t="n">
         <v>3.38</v>
       </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
         <v>-0.78</v>
       </c>
-      <c r="J2" t="n">
+      <c r="N2" t="n">
         <v>-4.16</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-6.93</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-10.31</v>
       </c>
     </row>
     <row r="3">
@@ -534,22 +570,40 @@
         <v>6.11</v>
       </c>
       <c r="E3" t="n">
+        <v>9.890000000000001</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="G3" t="n">
         <v>-97.56999999999999</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>-2.79</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>94.78</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
+        <v>-26.19</v>
+      </c>
+      <c r="K3" t="n">
+        <v>71.38</v>
+      </c>
+      <c r="L3" t="n">
         <v>3.38</v>
       </c>
-      <c r="I3" t="n">
+      <c r="M3" t="n">
         <v>-0.72</v>
       </c>
-      <c r="J3" t="n">
+      <c r="N3" t="n">
         <v>-4.1</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-6.92</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-10.3</v>
       </c>
     </row>
     <row r="4">
@@ -568,22 +622,40 @@
         <v>11.3</v>
       </c>
       <c r="E4" t="n">
+        <v>14.81</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="G4" t="n">
         <v>-46.76</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>-4.04</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>42.71</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
+        <v>9.06</v>
+      </c>
+      <c r="K4" t="n">
+        <v>55.81</v>
+      </c>
+      <c r="L4" t="n">
         <v>3.89</v>
       </c>
-      <c r="I4" t="n">
+      <c r="M4" t="n">
         <v>-6.17</v>
       </c>
-      <c r="J4" t="n">
+      <c r="N4" t="n">
         <v>-10.06</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-0.79</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-4.68</v>
       </c>
     </row>
     <row r="5">
@@ -602,158 +674,276 @@
         <v>11.32</v>
       </c>
       <c r="E5" t="n">
+        <v>14.88</v>
+      </c>
+      <c r="F5" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="G5" t="n">
         <v>-46.39</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>-4.1</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>42.29</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
+        <v>9.24</v>
+      </c>
+      <c r="K5" t="n">
+        <v>55.63</v>
+      </c>
+      <c r="L5" t="n">
         <v>3.92</v>
       </c>
-      <c r="I5" t="n">
+      <c r="M5" t="n">
         <v>-6.24</v>
       </c>
-      <c r="J5" t="n">
+      <c r="N5" t="n">
         <v>-10.16</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-0.74</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-4.66</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Left_Side_20241611_121625.png</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>4.17</v>
-      </c>
-      <c r="C6" t="n">
-        <v>14.64</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5.17</v>
-      </c>
-      <c r="E6" t="n">
-        <v>-127.36</v>
-      </c>
-      <c r="F6" t="n">
-        <v>-11.48</v>
-      </c>
-      <c r="G6" t="n">
-        <v>115.88</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I6" t="n">
-        <v>-0.57</v>
-      </c>
-      <c r="J6" t="n">
-        <v>-3.87</v>
+          <t>InFront_Camera_20241611_121413.png</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Left_Side_20241611_121631.png</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="C7" t="n">
-        <v>14.63</v>
-      </c>
-      <c r="D7" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="E7" t="n">
-        <v>-127.05</v>
-      </c>
-      <c r="F7" t="n">
-        <v>-11.73</v>
-      </c>
-      <c r="G7" t="n">
-        <v>115.32</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="I7" t="n">
-        <v>-0.5600000000000001</v>
-      </c>
-      <c r="J7" t="n">
-        <v>-3.85</v>
+          <t>InFront_Camera_20241611_121424.png</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Right_Side_20241611_121508.png</t>
+          <t>Left_Side_20241611_121625.png</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.57</v>
+        <v>4.17</v>
       </c>
       <c r="C8" t="n">
-        <v>14.95</v>
+        <v>14.64</v>
       </c>
       <c r="D8" t="n">
-        <v>5.32</v>
+        <v>5.17</v>
       </c>
       <c r="E8" t="n">
-        <v>-117.91</v>
+        <v>6.38</v>
       </c>
       <c r="F8" t="n">
-        <v>-6.27</v>
+        <v>3.81</v>
       </c>
       <c r="G8" t="n">
-        <v>111.65</v>
+        <v>-127.36</v>
       </c>
       <c r="H8" t="n">
-        <v>3.33</v>
+        <v>-11.48</v>
       </c>
       <c r="I8" t="n">
-        <v>0.37</v>
+        <v>115.88</v>
       </c>
       <c r="J8" t="n">
-        <v>-2.96</v>
+        <v>-61.65</v>
+      </c>
+      <c r="K8" t="n">
+        <v>65.70999999999999</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-0.57</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-3.87</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-5.14</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-8.44</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>Left_Side_20241611_121631.png</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="C9" t="n">
+        <v>14.63</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="E9" t="n">
+        <v>6.39</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-127.05</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-11.73</v>
+      </c>
+      <c r="I9" t="n">
+        <v>115.32</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-61.36</v>
+      </c>
+      <c r="K9" t="n">
+        <v>65.69</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-0.5600000000000001</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-3.85</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-5.11</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-8.4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Right_Side_20241611_121508.png</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="C10" t="n">
+        <v>14.95</v>
+      </c>
+      <c r="D10" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="E10" t="n">
+        <v>6.93</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-117.91</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-6.27</v>
+      </c>
+      <c r="I10" t="n">
+        <v>111.65</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-52.37</v>
+      </c>
+      <c r="K10" t="n">
+        <v>65.54000000000001</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-2.96</v>
+      </c>
+      <c r="O10" t="n">
+        <v>-4.48</v>
+      </c>
+      <c r="P10" t="n">
+        <v>-7.81</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Right_Side_20241611_121514.png</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B11" t="n">
         <v>4.57</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C11" t="n">
         <v>14.95</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D11" t="n">
         <v>5.35</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E11" t="n">
+        <v>6.93</v>
+      </c>
+      <c r="F11" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="G11" t="n">
         <v>-117.93</v>
       </c>
-      <c r="F9" t="n">
+      <c r="H11" t="n">
         <v>-6.44</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I11" t="n">
         <v>111.49</v>
       </c>
-      <c r="H9" t="n">
+      <c r="J11" t="n">
+        <v>-52.42</v>
+      </c>
+      <c r="K11" t="n">
+        <v>65.51000000000001</v>
+      </c>
+      <c r="L11" t="n">
         <v>3.32</v>
       </c>
-      <c r="I9" t="n">
+      <c r="M11" t="n">
         <v>0.32</v>
       </c>
-      <c r="J9" t="n">
+      <c r="N11" t="n">
         <v>-3</v>
+      </c>
+      <c r="O11" t="n">
+        <v>-4.49</v>
+      </c>
+      <c r="P11" t="n">
+        <v>-7.81</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Top_Down_20241611_121548.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Top_Down_20241611_121554.png</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/P3/Results/Data/Milk/32th_Milk/Results/OTResults.xlsx
+++ b/P3/Results/Data/Milk/32th_Milk/Results/OTResults.xlsx
@@ -1,33 +1,127 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aaudk-my.sharepoint.com/personal/en02nt_student_aau_dk/Documents/Dokumenter/GitHub/Robotteknologi-3.-semester/P3/Results/Data/Milk/32th_Milk/Results/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_56BDF564948A62E743B8C4D3470B70B47C2FFA91" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91E6E1ED-8828-49D7-B99B-AD1E2CD92934}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+  <si>
+    <t>Filename</t>
+  </si>
+  <si>
+    <t>Psnr Ground diff Reference</t>
+  </si>
+  <si>
+    <t>Psnr Ground diff Enhanced</t>
+  </si>
+  <si>
+    <t>Psnr Reference diff Enhanced</t>
+  </si>
+  <si>
+    <t>Psnr Ground diff Dehazed</t>
+  </si>
+  <si>
+    <t>Psnr Reference diff Dehazed</t>
+  </si>
+  <si>
+    <t>MBE Ground diff Reference</t>
+  </si>
+  <si>
+    <t>MBE Ground diff Enhanced</t>
+  </si>
+  <si>
+    <t>MBE Reference diff Enhanced</t>
+  </si>
+  <si>
+    <t>MBE Ground diff Dehazed</t>
+  </si>
+  <si>
+    <t>MBE Reference diff Dehazed</t>
+  </si>
+  <si>
+    <t>AG Ground diff Reference</t>
+  </si>
+  <si>
+    <t>AG Ground diff Enhanced</t>
+  </si>
+  <si>
+    <t>AG Reference diff Enhanced</t>
+  </si>
+  <si>
+    <t>AG Ground diff Dehazed</t>
+  </si>
+  <si>
+    <t>AG Reference diff Dehazed</t>
+  </si>
+  <si>
+    <t>Behind_Camera_20241611_121741.png</t>
+  </si>
+  <si>
+    <t>Behind_Camera_20241611_121747.png</t>
+  </si>
+  <si>
+    <t>Beside_Camera_20241611_121705.png</t>
+  </si>
+  <si>
+    <t>Beside_Camera_20241611_121710.png</t>
+  </si>
+  <si>
+    <t>InFront_Camera_20241611_121413.png</t>
+  </si>
+  <si>
+    <t>InFront_Camera_20241611_121424.png</t>
+  </si>
+  <si>
+    <t>Left_Side_20241611_121625.png</t>
+  </si>
+  <si>
+    <t>Left_Side_20241611_121631.png</t>
+  </si>
+  <si>
+    <t>Right_Side_20241611_121508.png</t>
+  </si>
+  <si>
+    <t>Right_Side_20241611_121514.png</t>
+  </si>
+  <si>
+    <t>Top_Down_20241611_121548.png</t>
+  </si>
+  <si>
+    <t>Top_Down_20241611_121554.png</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,80 +140,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -407,543 +442,501 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="33.1015625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.89453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.89453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.26171875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.15625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.15625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.89453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.62890625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.7890625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Filename</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Psnr Ground diff Reference</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Psnr Ground diff Enhanced</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Psnr Reference diff Enhanced</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Psnr Ground diff Dehazed</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Psnr Reference diff Dehazed</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>MBE Ground diff Reference</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>MBE Ground diff Enhanced</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>MBE Reference diff Enhanced</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>MBE Ground diff Dehazed</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>MBE Reference diff Dehazed</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>AG Ground diff Reference</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>AG Ground diff Enhanced</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>AG Reference diff Enhanced</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>AG Ground diff Dehazed</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>AG Reference diff Dehazed</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Behind_Camera_20241611_121741.png</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
         <v>5.62</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>15.03</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>6.14</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>9.99</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>5.21</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>-97.22</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>-2.79</v>
       </c>
-      <c r="I2" t="n">
-        <v>94.43000000000001</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="I2">
+        <v>94.43</v>
+      </c>
+      <c r="J2">
         <v>-25.59</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>71.63</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>3.38</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>-0.78</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2">
         <v>-4.16</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2">
         <v>-6.93</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2">
         <v>-10.31</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Behind_Camera_20241611_121747.png</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
         <v>5.59</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>15.04</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>6.11</v>
       </c>
-      <c r="E3" t="n">
-        <v>9.890000000000001</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="E3">
+        <v>9.89</v>
+      </c>
+      <c r="F3">
         <v>5.17</v>
       </c>
-      <c r="G3" t="n">
-        <v>-97.56999999999999</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="G3">
+        <v>-97.57</v>
+      </c>
+      <c r="H3">
         <v>-2.79</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>94.78</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>-26.19</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>71.38</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>3.38</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>-0.72</v>
       </c>
-      <c r="N3" t="n">
-        <v>-4.1</v>
-      </c>
-      <c r="O3" t="n">
+      <c r="N3">
+        <v>-4.0999999999999996</v>
+      </c>
+      <c r="O3">
         <v>-6.92</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3">
         <v>-10.3</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Beside_Camera_20241611_121705.png</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
         <v>10.63</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>13.7</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>11.3</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>14.81</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>9.98</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>-46.76</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>-4.04</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>42.71</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>9.06</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>55.81</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>3.89</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4">
         <v>-6.17</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4">
         <v>-10.06</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4">
         <v>-0.79</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4">
         <v>-4.68</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Beside_Camera_20241611_121710.png</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5">
         <v>10.67</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>13.71</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>11.32</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>14.88</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>10.01</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>-46.39</v>
       </c>
-      <c r="H5" t="n">
-        <v>-4.1</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="H5">
+        <v>-4.0999999999999996</v>
+      </c>
+      <c r="I5">
         <v>42.29</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>9.24</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>55.63</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5">
         <v>3.92</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5">
         <v>-6.24</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5">
         <v>-10.16</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5">
         <v>-0.74</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5">
         <v>-4.66</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>InFront_Camera_20241611_121413.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>InFront_Camera_20241611_121424.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Left_Side_20241611_121625.png</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
         <v>4.17</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>14.64</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>5.17</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>6.38</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>3.81</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>-127.36</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>-11.48</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>115.88</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>-61.65</v>
       </c>
-      <c r="K8" t="n">
-        <v>65.70999999999999</v>
-      </c>
-      <c r="L8" t="n">
+      <c r="K8">
+        <v>65.709999999999994</v>
+      </c>
+      <c r="L8">
         <v>3.3</v>
       </c>
-      <c r="M8" t="n">
-        <v>-0.57</v>
-      </c>
-      <c r="N8" t="n">
+      <c r="M8">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="N8">
         <v>-3.87</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O8">
         <v>-5.14</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P8">
         <v>-8.44</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Left_Side_20241611_121631.png</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9">
         <v>4.18</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>14.63</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>5.2</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>6.39</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>3.81</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>-127.05</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>-11.73</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>115.32</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>-61.36</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>65.69</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9">
         <v>3.29</v>
       </c>
-      <c r="M9" t="n">
-        <v>-0.5600000000000001</v>
-      </c>
-      <c r="N9" t="n">
+      <c r="M9">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="N9">
         <v>-3.85</v>
       </c>
-      <c r="O9" t="n">
-        <v>-5.11</v>
-      </c>
-      <c r="P9" t="n">
+      <c r="O9">
+        <v>-5.1100000000000003</v>
+      </c>
+      <c r="P9">
         <v>-8.4</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Right_Side_20241611_121508.png</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10">
         <v>4.57</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>14.95</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>5.32</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>6.93</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>4.07</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>-117.91</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>-6.27</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>111.65</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>-52.37</v>
       </c>
-      <c r="K10" t="n">
-        <v>65.54000000000001</v>
-      </c>
-      <c r="L10" t="n">
+      <c r="K10">
+        <v>65.540000000000006</v>
+      </c>
+      <c r="L10">
         <v>3.33</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M10">
         <v>0.37</v>
       </c>
-      <c r="N10" t="n">
+      <c r="N10">
         <v>-2.96</v>
       </c>
-      <c r="O10" t="n">
-        <v>-4.48</v>
-      </c>
-      <c r="P10" t="n">
+      <c r="O10">
+        <v>-4.4800000000000004</v>
+      </c>
+      <c r="P10">
         <v>-7.81</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Right_Side_20241611_121514.png</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11">
         <v>4.57</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>14.95</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>5.35</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>6.93</v>
       </c>
-      <c r="F11" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="G11" t="n">
+      <c r="F11">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="G11">
         <v>-117.93</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>-6.44</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>111.49</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>-52.42</v>
       </c>
-      <c r="K11" t="n">
-        <v>65.51000000000001</v>
-      </c>
-      <c r="L11" t="n">
+      <c r="K11">
+        <v>65.510000000000005</v>
+      </c>
+      <c r="L11">
         <v>3.32</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M11">
         <v>0.32</v>
       </c>
-      <c r="N11" t="n">
+      <c r="N11">
         <v>-3</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O11">
         <v>-4.49</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P11">
         <v>-7.81</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Top_Down_20241611_121548.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Top_Down_20241611_121554.png</t>
-        </is>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/P3/Results/Data/Milk/32th_Milk/Results/OTResults.xlsx
+++ b/P3/Results/Data/Milk/32th_Milk/Results/OTResults.xlsx
@@ -1,33 +1,127 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mads\OneDrive\Dokumenter\GitHub\Robotteknologi-3.-semester\P3\Results\Data\Milk\32th_Milk\Results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C0491C8-ED56-459E-BCDB-0A860B6B38C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+  <si>
+    <t>Filename</t>
+  </si>
+  <si>
+    <t>Psnr Ground diff Reference</t>
+  </si>
+  <si>
+    <t>Psnr Ground diff Enhanced</t>
+  </si>
+  <si>
+    <t>Psnr Reference diff Enhanced</t>
+  </si>
+  <si>
+    <t>Psnr Ground diff Dehazed</t>
+  </si>
+  <si>
+    <t>Psnr Reference diff Dehazed</t>
+  </si>
+  <si>
+    <t>MBE Ground diff Reference</t>
+  </si>
+  <si>
+    <t>MBE Ground diff Enhanced</t>
+  </si>
+  <si>
+    <t>MBE Reference diff Enhanced</t>
+  </si>
+  <si>
+    <t>MBE Ground diff Dehazed</t>
+  </si>
+  <si>
+    <t>MBE Reference diff Dehazed</t>
+  </si>
+  <si>
+    <t>AG Ground diff Reference</t>
+  </si>
+  <si>
+    <t>AG Ground diff Enhanced</t>
+  </si>
+  <si>
+    <t>AG Reference diff Enhanced</t>
+  </si>
+  <si>
+    <t>AG Ground diff Dehazed</t>
+  </si>
+  <si>
+    <t>AG Reference diff Dehazed</t>
+  </si>
+  <si>
+    <t>Behind_Camera_20241611_121741.png</t>
+  </si>
+  <si>
+    <t>Behind_Camera_20241611_121747.png</t>
+  </si>
+  <si>
+    <t>Beside_Camera_20241611_121705.png</t>
+  </si>
+  <si>
+    <t>Beside_Camera_20241611_121710.png</t>
+  </si>
+  <si>
+    <t>InFront_Camera_20241611_121413.png</t>
+  </si>
+  <si>
+    <t>InFront_Camera_20241611_121424.png</t>
+  </si>
+  <si>
+    <t>Left_Side_20241611_121625.png</t>
+  </si>
+  <si>
+    <t>Left_Side_20241611_121631.png</t>
+  </si>
+  <si>
+    <t>Right_Side_20241611_121508.png</t>
+  </si>
+  <si>
+    <t>Right_Side_20241611_121514.png</t>
+  </si>
+  <si>
+    <t>Top_Down_20241611_121548.png</t>
+  </si>
+  <si>
+    <t>Top_Down_20241611_121554.png</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,80 +140,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -407,543 +442,501 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="34.77734375" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="22.77734375" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="22.5546875" customWidth="1"/>
+    <col min="6" max="6" width="24.21875" customWidth="1"/>
+    <col min="7" max="7" width="23.33203125" customWidth="1"/>
+    <col min="8" max="8" width="22.5546875" customWidth="1"/>
+    <col min="9" max="9" width="25" customWidth="1"/>
+    <col min="10" max="10" width="22.109375" customWidth="1"/>
+    <col min="11" max="11" width="24.33203125" customWidth="1"/>
+    <col min="12" max="12" width="22.33203125" customWidth="1"/>
+    <col min="13" max="13" width="21.21875" customWidth="1"/>
+    <col min="14" max="14" width="23.21875" customWidth="1"/>
+    <col min="15" max="15" width="20.44140625" customWidth="1"/>
+    <col min="16" max="16" width="22.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Filename</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Psnr Ground diff Reference</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Psnr Ground diff Enhanced</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Psnr Reference diff Enhanced</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Psnr Ground diff Dehazed</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Psnr Reference diff Dehazed</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>MBE Ground diff Reference</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>MBE Ground diff Enhanced</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>MBE Reference diff Enhanced</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>MBE Ground diff Dehazed</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>MBE Reference diff Dehazed</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>AG Ground diff Reference</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>AG Ground diff Enhanced</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>AG Reference diff Enhanced</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>AG Ground diff Dehazed</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>AG Reference diff Dehazed</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Behind_Camera_20241611_121741.png</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
         <v>5.62</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>15.03</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>6.14</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>9.99</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>5.21</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>-97.22</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>-2.79</v>
       </c>
-      <c r="I2" t="n">
-        <v>94.43000000000001</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="I2">
+        <v>94.43</v>
+      </c>
+      <c r="J2">
         <v>-25.59</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>71.63</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>3.38</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>-0.78</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2">
         <v>-4.16</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2">
         <v>-6.93</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2">
         <v>-10.31</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Behind_Camera_20241611_121747.png</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
         <v>5.59</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>15.04</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>6.11</v>
       </c>
-      <c r="E3" t="n">
-        <v>9.890000000000001</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="E3">
+        <v>9.89</v>
+      </c>
+      <c r="F3">
         <v>5.17</v>
       </c>
-      <c r="G3" t="n">
-        <v>-97.56999999999999</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="G3">
+        <v>-97.57</v>
+      </c>
+      <c r="H3">
         <v>-2.79</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>94.78</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>-26.19</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>71.38</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>3.38</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>-0.72</v>
       </c>
-      <c r="N3" t="n">
-        <v>-4.1</v>
-      </c>
-      <c r="O3" t="n">
+      <c r="N3">
+        <v>-4.0999999999999996</v>
+      </c>
+      <c r="O3">
         <v>-6.92</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3">
         <v>-10.3</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Beside_Camera_20241611_121705.png</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
         <v>10.63</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>13.7</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>11.3</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>14.81</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>9.98</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>-46.76</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>-4.04</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>42.71</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>9.06</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>55.81</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>3.89</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4">
         <v>-6.17</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4">
         <v>-10.06</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4">
         <v>-0.79</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4">
         <v>-4.68</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Beside_Camera_20241611_121710.png</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5">
         <v>10.67</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>13.71</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>11.32</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>14.88</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>10.01</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>-46.39</v>
       </c>
-      <c r="H5" t="n">
-        <v>-4.1</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="H5">
+        <v>-4.0999999999999996</v>
+      </c>
+      <c r="I5">
         <v>42.29</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>9.24</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>55.63</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5">
         <v>3.92</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5">
         <v>-6.24</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5">
         <v>-10.16</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5">
         <v>-0.74</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5">
         <v>-4.66</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>InFront_Camera_20241611_121413.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>InFront_Camera_20241611_121424.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Left_Side_20241611_121625.png</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
         <v>4.17</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>14.64</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>5.17</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>6.38</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>3.81</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>-127.36</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>-11.48</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>115.88</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>-61.65</v>
       </c>
-      <c r="K8" t="n">
-        <v>65.70999999999999</v>
-      </c>
-      <c r="L8" t="n">
+      <c r="K8">
+        <v>65.709999999999994</v>
+      </c>
+      <c r="L8">
         <v>3.3</v>
       </c>
-      <c r="M8" t="n">
-        <v>-0.57</v>
-      </c>
-      <c r="N8" t="n">
+      <c r="M8">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="N8">
         <v>-3.87</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O8">
         <v>-5.14</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P8">
         <v>-8.44</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Left_Side_20241611_121631.png</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9">
         <v>4.18</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>14.63</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>5.2</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>6.39</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>3.81</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>-127.05</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>-11.73</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>115.32</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>-61.36</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>65.69</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9">
         <v>3.29</v>
       </c>
-      <c r="M9" t="n">
-        <v>-0.5600000000000001</v>
-      </c>
-      <c r="N9" t="n">
+      <c r="M9">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="N9">
         <v>-3.85</v>
       </c>
-      <c r="O9" t="n">
-        <v>-5.11</v>
-      </c>
-      <c r="P9" t="n">
+      <c r="O9">
+        <v>-5.1100000000000003</v>
+      </c>
+      <c r="P9">
         <v>-8.4</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Right_Side_20241611_121508.png</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10">
         <v>4.57</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>14.95</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>5.32</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>6.93</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>4.07</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>-117.91</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>-6.27</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>111.65</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>-52.37</v>
       </c>
-      <c r="K10" t="n">
-        <v>65.54000000000001</v>
-      </c>
-      <c r="L10" t="n">
+      <c r="K10">
+        <v>65.540000000000006</v>
+      </c>
+      <c r="L10">
         <v>3.33</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M10">
         <v>0.37</v>
       </c>
-      <c r="N10" t="n">
+      <c r="N10">
         <v>-2.96</v>
       </c>
-      <c r="O10" t="n">
-        <v>-4.48</v>
-      </c>
-      <c r="P10" t="n">
+      <c r="O10">
+        <v>-4.4800000000000004</v>
+      </c>
+      <c r="P10">
         <v>-7.81</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Right_Side_20241611_121514.png</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11">
         <v>4.57</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>14.95</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>5.35</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>6.93</v>
       </c>
-      <c r="F11" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="G11" t="n">
+      <c r="F11">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="G11">
         <v>-117.93</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>-6.44</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>111.49</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>-52.42</v>
       </c>
-      <c r="K11" t="n">
-        <v>65.51000000000001</v>
-      </c>
-      <c r="L11" t="n">
+      <c r="K11">
+        <v>65.510000000000005</v>
+      </c>
+      <c r="L11">
         <v>3.32</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M11">
         <v>0.32</v>
       </c>
-      <c r="N11" t="n">
+      <c r="N11">
         <v>-3</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O11">
         <v>-4.49</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P11">
         <v>-7.81</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Top_Down_20241611_121548.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Top_Down_20241611_121554.png</t>
-        </is>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
